--- a/[추가2] KNN 원리 이해하기.xlsx
+++ b/[추가2] KNN 원리 이해하기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\1. 강의\1.1 기업출강\SK C&amp;C\Python\4.ML1,2_python(4일)\제공_ML1_3차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\김병수\22.08.22-머신러닝\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF9E03E-218D-418D-8480-10B03DA7815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA019D62-2BED-4968-B150-A1DB233AD77A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{52A72F46-DDB1-40A4-8A9F-2185006B86D9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{52A72F46-DDB1-40A4-8A9F-2185006B86D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -217,16 +209,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,7 +257,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0308647592490203E-2"/>
+          <c:y val="1.8188553718771542E-2"/>
+          <c:w val="0.88778518310006527"/>
+          <c:h val="0.89633049509147744"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1184,8 +1186,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>30324</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="잉크 73">
@@ -1204,7 +1206,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="잉크 73">
@@ -1595,31 +1597,31 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="5.4375" customWidth="1"/>
-    <col min="5" max="7" width="11.3125" customWidth="1"/>
-    <col min="15" max="15" width="6.8125" customWidth="1"/>
-    <col min="16" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" customWidth="1"/>
+    <col min="5" max="7" width="11.296875" customWidth="1"/>
+    <col min="15" max="15" width="6.796875" customWidth="1"/>
+    <col min="16" max="17" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>16</v>
       </c>
@@ -1648,10 +1650,16 @@
         <v>0.74539700334099024</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.77247813656927411</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.70108081213268414</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -1662,10 +1670,16 @@
         <v>0.6111927301157436</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.41068659751988501</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.9371183499084923</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -1676,10 +1690,16 @@
         <v>0.58283789953771681</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.56620135315358666</v>
+      </c>
+      <c r="F5" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.56069073847566608</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>25</v>
       </c>
@@ -1690,10 +1710,16 @@
         <v>0.26217135944187703</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.43636579112666801</v>
+      </c>
+      <c r="F6" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.27222923418771239</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>14</v>
       </c>
@@ -1704,10 +1730,16 @@
         <v>0.67394784724968482</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.63546920058899792</v>
+      </c>
+      <c r="F7" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.64593272880280406</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>22</v>
       </c>
@@ -1718,10 +1750,16 @@
         <v>0.34007829892906599</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.26368179629315303</v>
+      </c>
+      <c r="F8" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.46578242364243194</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>17</v>
       </c>
@@ -1732,10 +1770,16 @@
         <v>0.84120610198656387</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.62249244765349376</v>
+      </c>
+      <c r="F9" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>1.0642311353884149</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>22</v>
       </c>
@@ -1746,10 +1790,16 @@
         <v>0.61046987452276935</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.49189382830041001</v>
+      </c>
+      <c r="F10" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.63550782448869136</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>24</v>
       </c>
@@ -1760,10 +1810,16 @@
         <v>0.44953322144300023</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.28353511608123316</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.58468839026656838</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1774,18 +1830,24 @@
         <v>0.11512040164784143</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3">
+        <f>SQRT(($B$16-표1[[#This Row],[X1]])^2 + ($C$16-표1[[#This Row],[X2]])^2)</f>
+        <v>0.11901161423050938</v>
+      </c>
+      <c r="F12" s="3">
+        <f>SQRT(($B$17-표1[[#This Row],[X1]])^2 + ($C$17 - 표1[[#This Row],[X2]])^2)</f>
+        <v>0.64051156851998792</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="1"/>
       <c r="E14" s="9" t="s">
         <v>8</v>
@@ -1793,7 +1855,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1804,17 +1866,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1825,11 +1887,17 @@
         <v>0.22798170754872304</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <f>AVERAGE(A4,A6,A8,A11,A12)</f>
+        <v>17</v>
+      </c>
+      <c r="G16" s="5">
+        <f>AVERAGE(표1[Y])</f>
+        <v>16.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1840,14 +1908,20 @@
         <v>4.4772280252572627E-2</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <f>AVERAGE(A4,A8,A11,A12,A6)</f>
+        <v>17</v>
+      </c>
+      <c r="G17" s="5">
+        <f>AVERAGE(표1[Y])</f>
+        <v>16.2</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D19" s="2"/>
     </row>
   </sheetData>
